--- a/test/testcases/testcase26_names_fullname_etljob.xlsx
+++ b/test/testcases/testcase26_names_fullname_etljob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95701D-91D5-4D7C-AD61-3E2AA0184FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838CA0E-0436-47E6-A633-7465F2861CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>table</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>source_to_target</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
